--- a/其他共享文件/保险/死亡率.xlsx
+++ b/其他共享文件/保险/死亡率.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计抛去因素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1032,6 +1036,230 @@
         <v>0</v>
       </c>
       <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>19</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <v>22</v>
+      </c>
+      <c r="X5">
+        <v>23</v>
+      </c>
+      <c r="Y5">
+        <v>24</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>26</v>
+      </c>
+      <c r="AB5">
+        <v>27</v>
+      </c>
+      <c r="AC5">
+        <v>28</v>
+      </c>
+      <c r="AD5">
+        <v>29</v>
+      </c>
+      <c r="AE5">
+        <v>30</v>
+      </c>
+      <c r="AF5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B4)*1.03^B5</f>
+        <v>3.09</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:AF6" si="0">SUM(C2:C4)*1.03^C5</f>
+        <v>3.1826999999999996</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.278181</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.6275440499999991</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>5.7963703714999992</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5.9702614826449993</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>9.8389909233989599</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>10.134160651100927</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>10.438185470633956</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>10.751331034752974</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>11.073870965795564</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>11.406087094769429</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>11.748269707612511</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>12.857012661268444</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>13.242723041106498</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>13.64000473233969</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>14.875628690445756</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>15.321897551159129</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>15.781554477693902</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>28.897779754710612</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>29.764713147351927</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>30.657654541772487</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>25.656624644645852</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>6.098382319381205</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>6.2813337889626411</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>6.4697738026315221</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>6.6638670167104666</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1046,7 +1274,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,12 +1284,12 @@
         <v>30</v>
       </c>
       <c r="B1" s="2">
-        <f>Sheet1!B2*0.9*(SUM(Sheet2!B2:AF4)+15)*0.01</f>
-        <v>0.57550500000000004</v>
+        <f>Sheet1!B2*0.9*C1*0.01</f>
+        <v>0.89665219662743645</v>
       </c>
       <c r="C1">
-        <f>SUM(Sheet2!B2:AF4)+15</f>
-        <v>220.5</v>
+        <f>SUM(Sheet2!B6:AF6)+15</f>
+        <v>343.54490292238938</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1069,12 +1297,12 @@
         <v>35</v>
       </c>
       <c r="B2" s="2">
-        <f>Sheet1!B3*0.9*(SUM(Sheet2!G2:AF4)+15)*0.01</f>
-        <v>0.92488500000000007</v>
+        <f>Sheet1!B3*0.9*C2*0.01</f>
+        <v>1.4805967934290825</v>
       </c>
       <c r="C2">
-        <f>SUM(Sheet2!G2:AF4)+15</f>
-        <v>201.5</v>
+        <f>SUM(Sheet2!G6:AF6)+15</f>
+        <v>322.57010750088943</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1082,12 +1310,12 @@
         <v>40</v>
       </c>
       <c r="B3" s="2">
-        <f>Sheet1!B4*0.9*(SUM(Sheet2!L2:AF4)+15)*0.01</f>
-        <v>1.3324500000000001</v>
+        <f>Sheet1!B4*0.9*C3*0.01</f>
+        <v>2.2310411413006968</v>
       </c>
       <c r="C3">
-        <f>SUM(Sheet2!L2:AF4)+15</f>
-        <v>164.5</v>
+        <f>SUM(Sheet2!L6:AF6)+15</f>
+        <v>275.43717793835759</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1095,12 +1323,12 @@
         <v>45</v>
       </c>
       <c r="B4" s="2">
-        <f>Sheet1!B5*0.9*(SUM(Sheet2!Q2:AF4)+15)*0.01</f>
-        <v>1.7117100000000003</v>
+        <f>Sheet1!B5*0.9*C4*0.01</f>
+        <v>2.9814137125237807</v>
       </c>
       <c r="C4">
-        <f>SUM(Sheet2!Q2:AF4)+15</f>
-        <v>123.5</v>
+        <f>SUM(Sheet2!Q6:AF6)+15</f>
+        <v>215.10921446780523</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1108,12 +1336,12 @@
         <v>50</v>
       </c>
       <c r="B5" s="2">
-        <f>Sheet1!B6*0.9*(SUM(Sheet2!V2:AF4)+15)*0.01</f>
-        <v>1.6653599999999997</v>
+        <f>Sheet1!B6*0.9*C5*0.01</f>
+        <v>2.9280810384174787</v>
       </c>
       <c r="C5">
-        <f>SUM(Sheet2!V2:AF4)+15</f>
-        <v>72</v>
+        <f>SUM(Sheet2!V6:AF6)+15</f>
+        <v>126.59234926145609</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1121,12 +1349,12 @@
         <v>55</v>
       </c>
       <c r="B6" s="2">
-        <f>Sheet1!B7*0.9*(SUM(Sheet2!AA2:AF4)+15)*0.01</f>
-        <v>0.85806000000000016</v>
+        <f>Sheet1!B7*0.9*C6*0.01</f>
+        <v>1.1495405638783138</v>
       </c>
       <c r="C6">
-        <f>SUM(Sheet2!AA2:AF4)+15</f>
-        <v>21</v>
+        <f>SUM(Sheet2!AA6:AF6)+15</f>
+        <v>28.133640819341988</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1134,11 +1362,11 @@
         <v>60</v>
       </c>
       <c r="B7" s="2">
-        <f>Sheet1!B8*0.9*(SUM(Sheet2!AF2:AF4)+15)*0.01</f>
+        <f>Sheet1!B8*0.9*C7*0.01</f>
         <v>1.0449000000000002</v>
       </c>
       <c r="C7">
-        <f>SUM(Sheet2!AF2:AF4)+15</f>
+        <f>SUM(Sheet2!AF6:AF6)+15</f>
         <v>15</v>
       </c>
     </row>
@@ -1147,8 +1375,8 @@
         <v>65</v>
       </c>
       <c r="B8" s="2">
-        <f>Sheet1!B9*0.9*(SUM(Sheet2!AF8:AF10)+15)*0.01</f>
-        <v>1.64025</v>
+        <f>Sheet1!B9*0.9*C8*0.01</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1156,8 +1384,8 @@
         <v>70</v>
       </c>
       <c r="B9" s="2">
-        <f>Sheet1!B10*0.9*(SUM(Sheet2!AF9:AF11)+15)*0.01</f>
-        <v>2.7944999999999998</v>
+        <f>Sheet1!B10*0.9*C9*0.01</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1165,8 +1393,8 @@
         <v>75</v>
       </c>
       <c r="B10" s="2">
-        <f>Sheet1!B11*0.9*(SUM(Sheet2!AF10:AF12)+15)*0.01</f>
-        <v>4.8141000000000007</v>
+        <f>Sheet1!B11*0.9*C10*0.01</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1174,8 +1402,8 @@
         <v>80</v>
       </c>
       <c r="B11" s="2">
-        <f>Sheet1!B12*0.9*(SUM(Sheet2!AF11:AF13)+15)*0.01</f>
-        <v>8.3160000000000007</v>
+        <f>Sheet1!B12*0.9*C11*0.01</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1183,7 +1411,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="2">
-        <f>Sheet1!B13*0.9*(SUM(Sheet2!AF12:AF14)+15)*0.01</f>
+        <f>Sheet1!B13*0.9*C12*0.01</f>
         <v>0</v>
       </c>
     </row>
